--- a/tables/table_general_100k_rates_2011_2019.xlsx
+++ b/tables/table_general_100k_rates_2011_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Analise</t>
   </si>
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t xml:space="preserve">admissoes_gerais_non_uti_70_up_tx_adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_non_elderly_tx_adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_uti_non_elderly_tx_adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_non_uti_non_elderly_tx_adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_elderly_tx_adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_uti_elderly_tx_adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admissoes_gerais_non_uti_elderly_tx_adjusted</t>
   </si>
 </sst>
 </file>
@@ -171,25 +189,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -217,771 +223,1073 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15:O15"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="40.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="1" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.75"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="n">
+      <c r="C1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="D1" s="4" t="n">
+      <c r="D1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E1" s="4" t="n">
+      <c r="E1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="F1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="G1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="H1" s="4" t="n">
+      <c r="H1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="I1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="J1" s="4" t="n">
+      <c r="J1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="K1" s="4" t="n">
+      <c r="K1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="2" t="n">
         <v>5516</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="2" t="n">
         <v>5316</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="2" t="n">
         <v>5227</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="2" t="n">
         <v>5208</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="2" t="n">
         <v>5105</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="2" t="n">
         <v>4945</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="2" t="n">
         <v>4969</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="2" t="n">
         <v>5038</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="2" t="n">
         <v>5063</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="3" t="n">
         <v>-8.21247280638144</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="n">
         <v>-1.08201463674814</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="O2" s="3" t="n">
         <v>-1.09351624237406</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="P2" s="3" t="n">
         <v>-1.07051169362719</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="2" t="n">
         <v>268</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="2" t="n">
         <v>271</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="2" t="n">
         <v>276</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="2" t="n">
         <v>271</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="2" t="n">
         <v>268</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="2" t="n">
         <v>273</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="2" t="n">
         <v>277</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="3" t="n">
         <v>7.83582089552239</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="n">
         <v>0.636074097830197</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="O3" s="3" t="n">
         <v>0.585248701871377</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="P3" s="3" t="n">
         <v>0.686925175694753</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="2" t="n">
         <v>5249</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="2" t="n">
         <v>5046</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="2" t="n">
         <v>4957</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="2" t="n">
         <v>4933</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="2" t="n">
         <v>4835</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="2" t="n">
         <v>4677</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="2" t="n">
         <v>4696</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="2" t="n">
         <v>4762</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="2" t="n">
         <v>4774</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="3" t="n">
         <v>-9.04934273194894</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="n">
         <v>-1.17738538156003</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="O4" s="3" t="n">
         <v>-1.18919336407761</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="P4" s="3" t="n">
         <v>-1.16557598797764</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="2" t="n">
         <v>4499</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="2" t="n">
         <v>4356</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="2" t="n">
         <v>4261</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="2" t="n">
         <v>4296</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="2" t="n">
         <v>4229</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="2" t="n">
         <v>4104</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="2" t="n">
         <v>4157</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="2" t="n">
         <v>4268</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="2" t="n">
         <v>4282</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="3" t="n">
         <v>-4.82329406534786</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="n">
         <v>-0.584260913715762</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="O5" s="3" t="n">
         <v>-0.603277052795481</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="P5" s="3" t="n">
         <v>-0.565241136552863</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="3" t="n">
         <v>7.07070707070707</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="n">
         <v>0.445717891761799</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="O6" s="3" t="n">
         <v>0.319095850212947</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="P6" s="3" t="n">
         <v>0.57249975474114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="2" t="n">
         <v>4401</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="2" t="n">
         <v>4257</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="2" t="n">
         <v>4164</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="2" t="n">
         <v>4198</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="2" t="n">
         <v>4133</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="2" t="n">
         <v>4008</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="2" t="n">
         <v>4060</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="2" t="n">
         <v>4169</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="2" t="n">
         <v>4177</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="3" t="n">
         <v>-5.08975232901613</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="n">
         <v>-0.608384544111773</v>
       </c>
-      <c r="N7" s="6" t="n">
+      <c r="O7" s="3" t="n">
         <v>-0.627618616097725</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="P7" s="3" t="n">
         <v>-0.589146749265201</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="2" t="n">
         <v>4831</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="2" t="n">
         <v>4656</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="2" t="n">
         <v>4586</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="2" t="n">
         <v>4530</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="2" t="n">
         <v>4381</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="2" t="n">
         <v>4260</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="2" t="n">
         <v>4196</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="2" t="n">
         <v>4254</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="2" t="n">
         <v>4296</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="3" t="n">
         <v>-11.0743117367005</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="n">
         <v>-1.6067795453962</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="O8" s="3" t="n">
         <v>-1.68797770238781</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="P8" s="3" t="n">
         <v>-1.52551432498199</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="2" t="n">
         <v>339</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="2" t="n">
         <v>338</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="2" t="n">
         <v>332</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="2" t="n">
         <v>334</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="2" t="n">
         <v>328</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="2" t="n">
         <v>324</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="2" t="n">
         <v>325</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="2" t="n">
         <v>330</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="2" t="n">
         <v>340</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="3" t="n">
         <v>0.294985250737463</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="n">
         <v>-0.173678202635707</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="O9" s="3" t="n">
         <v>-0.474673646857338</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="P9" s="3" t="n">
         <v>0.128227545131376</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="2" t="n">
         <v>4493</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="2" t="n">
         <v>4319</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="2" t="n">
         <v>4255</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="2" t="n">
         <v>4196</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="2" t="n">
         <v>4053</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="2" t="n">
         <v>3936</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="2" t="n">
         <v>3871</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="2" t="n">
         <v>3924</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="2" t="n">
         <v>3956</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="3" t="n">
         <v>-11.9519252170042</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="n">
         <v>-1.72184362089659</v>
       </c>
-      <c r="N10" s="6" t="n">
+      <c r="O10" s="3" t="n">
         <v>-1.80616060690177</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="P10" s="3" t="n">
         <v>-1.63745423366775</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="2" t="n">
         <v>7333</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="2" t="n">
         <v>7070</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="2" t="n">
         <v>6965</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="2" t="n">
         <v>6832</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="2" t="n">
         <v>6673</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="2" t="n">
         <v>6514</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="2" t="n">
         <v>6470</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="2" t="n">
         <v>6497</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="2" t="n">
         <v>6566</v>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="3" t="n">
         <v>-10.4595663439247</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="n">
         <v>-1.44127832611489</v>
       </c>
-      <c r="N11" s="6" t="n">
+      <c r="O11" s="3" t="n">
         <v>-1.54067159107721</v>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="P11" s="3" t="n">
         <v>-1.34178472509219</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="2" t="n">
         <v>632</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="2" t="n">
         <v>635</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="2" t="n">
         <v>634</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="2" t="n">
         <v>644</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="2" t="n">
         <v>636</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="2" t="n">
         <v>632</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="2" t="n">
         <v>644</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="2" t="n">
         <v>656</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="2" t="n">
         <v>683</v>
       </c>
-      <c r="L12" s="6" t="n">
+      <c r="L12" s="3" t="n">
         <v>8.06962025316456</v>
       </c>
-      <c r="M12" s="6" t="n">
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="n">
         <v>0.754416856562634</v>
       </c>
-      <c r="N12" s="6" t="n">
+      <c r="O12" s="3" t="n">
         <v>0.425196236820957</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="P12" s="3" t="n">
         <v>1.0847167494402</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="2" t="n">
         <v>6702</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="2" t="n">
         <v>6435</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="2" t="n">
         <v>6332</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="2" t="n">
         <v>6189</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="2" t="n">
         <v>6037</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="2" t="n">
         <v>5882</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="2" t="n">
         <v>5827</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="2" t="n">
         <v>5841</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="2" t="n">
         <v>5884</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="3" t="n">
         <v>-12.2053118472098</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="n">
         <v>-1.66986002445013</v>
       </c>
-      <c r="N13" s="6" t="n">
+      <c r="O13" s="3" t="n">
         <v>-1.77410839546599</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="P13" s="3" t="n">
         <v>-1.56550101333031</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="2" t="n">
         <v>12948</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="2" t="n">
         <v>12304</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="2" t="n">
         <v>12256</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="2" t="n">
         <v>12003</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="2" t="n">
         <v>11763</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="2" t="n">
         <v>11227</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="2" t="n">
         <v>11262</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="2" t="n">
         <v>11063</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="2" t="n">
         <v>11086</v>
       </c>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="3" t="n">
         <v>-14.3805993203584</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="n">
         <v>-1.92775627962082</v>
       </c>
-      <c r="N14" s="6" t="n">
+      <c r="O14" s="3" t="n">
         <v>-2.02244910984954</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="P14" s="3" t="n">
         <v>-1.8329719311615</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="2" t="n">
         <v>1076</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="2" t="n">
         <v>1095</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="2" t="n">
         <v>1130</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="2" t="n">
         <v>1166</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="2" t="n">
         <v>1152</v>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="2" t="n">
         <v>1127</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="2" t="n">
         <v>1156</v>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="J15" s="2" t="n">
         <v>1167</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K15" s="2" t="n">
         <v>1214</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="3" t="n">
         <v>12.8252788104089</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="n">
         <v>1.14676362499093</v>
       </c>
-      <c r="N15" s="6" t="n">
+      <c r="O15" s="3" t="n">
         <v>0.833509963668844</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="P15" s="3" t="n">
         <v>1.46099045343147</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="2" t="n">
         <v>11873</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="2" t="n">
         <v>11209</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="2" t="n">
         <v>11127</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="2" t="n">
         <v>10837</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="2" t="n">
         <v>10612</v>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H16" s="2" t="n">
         <v>10101</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="2" t="n">
         <v>10106</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="2" t="n">
         <v>9896</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="2" t="n">
         <v>9872</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="3" t="n">
         <v>-16.8533647772256</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="n">
         <v>-2.25417729862254</v>
       </c>
-      <c r="N16" s="6" t="n">
+      <c r="O16" s="3" t="n">
         <v>-2.35351430468252</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="P16" s="3" t="n">
         <v>-2.15473923576872</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>4561</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>4411</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>4321</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>4339</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>4257</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>4133</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>4164</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>4265</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>4284</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>-6.07322955492217</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="n">
+        <v>-0.780361530585505</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>-0.795767236464706</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>-0.764953432310667</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>4.1958041958042</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="n">
+        <v>0.172826368244738</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>0.0871154815012432</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>0.258610654606883</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>4418</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>4268</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>4181</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>4198</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>4118</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>3995</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>4025</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>4124</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>4136</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>-6.38297872340426</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="n">
+        <v>-0.812648578898367</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>-0.828309180802489</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>-0.796985503965397</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>9801</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>9371</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>9291</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>9105</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>8911</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>8586</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>8577</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>8504</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>8553</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>-12.7333945515764</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="n">
+        <v>-1.72221957803341</v>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>-1.77028144547943</v>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>-1.67413419486185</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>827</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>837</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>852</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>873</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>863</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>850</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>869</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>881</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>916</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>10.7617896009674</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="n">
+        <v>0.981237464785201</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>0.822069236968348</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>1.14065697215757</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>8975</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>8534</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>8439</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>8232</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>8048</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>7736</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>7708</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>7624</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>7637</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>-14.908077994429</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="n">
+        <v>-2.00691489153096</v>
+      </c>
+      <c r="O22" s="3" t="n">
+        <v>-2.0573305787853</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>-1.95647325295699</v>
       </c>
     </row>
   </sheetData>
